--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/6 Cuestionario con Compras.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/6 Cuestionario con Compras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98495533-DC3A-44EE-9326-DCC8F313D153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4B1D8-5B20-4A6E-9556-96EA46B2D26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -316,9 +316,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -370,6 +367,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +730,7 @@
   <dimension ref="B2:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,24 +743,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="27"/>
+      <c r="C5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -777,26 +780,29 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -806,9 +812,11 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="14" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
@@ -833,199 +841,199 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="2:16" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="2:16" s="15" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:16" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:8" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:8" s="15" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" s="14" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:8" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:8" s="15" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" s="14" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:8" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:8" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="2:8" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="2:8" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="2:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="2:8" s="16" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="2:8" s="15" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" s="15" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="2:8" s="16" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" s="15" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="2:8" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="2:8" s="16" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" s="15" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="2:8" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="2:8" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="2:8" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="2:8" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -1033,12 +1041,18 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
+      <c r="B46" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
